--- a/Requirement/REQ_SRS_.xlsx
+++ b/Requirement/REQ_SRS_.xlsx
@@ -255,12 +255,6 @@
 </t>
   </si>
   <si>
-    <t>SRS_SwapAccount_07</t>
-  </si>
-  <si>
-    <t>The user can move from one account to another that he owns</t>
-  </si>
-  <si>
     <t>System Technology</t>
   </si>
   <si>
@@ -293,6 +287,12 @@
   <si>
     <t xml:space="preserve">The user should be able to transfer money from their account to another account. This transfer should include the payer's account number, the payee's account number, and the amount to be transferred.
 </t>
+  </si>
+  <si>
+    <t>The user can switch between their own accounts.</t>
+  </si>
+  <si>
+    <t>SRS_AccountSwitching_07</t>
   </si>
 </sst>
 </file>
@@ -612,6 +612,13 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -636,13 +643,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,18 +863,18 @@
   </sheetPr>
   <dimension ref="A1:BZ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A34"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" style="27" customWidth="1"/>
     <col min="2" max="2" width="66.21875" customWidth="1"/>
     <col min="3" max="3" width="119.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="38" customFormat="1" ht="31.2" customHeight="1">
+    <row r="1" spans="1:78" s="30" customFormat="1" ht="31.2" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -884,84 +884,84 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="37"/>
-      <c r="BL1" s="37"/>
-      <c r="BM1" s="37"/>
-      <c r="BN1" s="37"/>
-      <c r="BO1" s="37"/>
-      <c r="BP1" s="37"/>
-      <c r="BQ1" s="37"/>
-      <c r="BR1" s="37"/>
-      <c r="BS1" s="37"/>
-      <c r="BT1" s="37"/>
-      <c r="BU1" s="37"/>
-      <c r="BV1" s="37"/>
-      <c r="BW1" s="37"/>
-      <c r="BX1" s="37"/>
-      <c r="BY1" s="37"/>
-      <c r="BZ1" s="37"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="29"/>
+      <c r="BR1" s="29"/>
+      <c r="BS1" s="29"/>
+      <c r="BT1" s="29"/>
+      <c r="BU1" s="29"/>
+      <c r="BV1" s="29"/>
+      <c r="BW1" s="29"/>
+      <c r="BX1" s="29"/>
+      <c r="BY1" s="29"/>
+      <c r="BZ1" s="29"/>
     </row>
     <row r="2" spans="1:78" s="4" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1047,12 +1047,12 @@
       <c r="BZ2" s="6"/>
     </row>
     <row r="3" spans="1:78" s="4" customFormat="1" ht="87">
-      <c r="A3" s="26"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1131,7 +1131,7 @@
       <c r="BZ3" s="6"/>
     </row>
     <row r="4" spans="1:78" s="4" customFormat="1" ht="104.4">
-      <c r="A4" s="27"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="BZ4" s="6"/>
     </row>
     <row r="5" spans="1:78" s="4" customFormat="1" ht="51.6" customHeight="1">
-      <c r="A5" s="27"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1299,7 +1299,7 @@
       <c r="BZ5" s="6"/>
     </row>
     <row r="6" spans="1:78" s="4" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
@@ -1383,7 +1383,7 @@
       <c r="BZ6" s="6"/>
     </row>
     <row r="7" spans="1:78" s="4" customFormat="1" ht="87">
-      <c r="A7" s="27"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="BZ7" s="6"/>
     </row>
     <row r="8" spans="1:78" s="4" customFormat="1" ht="34.799999999999997">
-      <c r="A8" s="27"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="BZ8" s="6"/>
     </row>
     <row r="9" spans="1:78" s="4" customFormat="1" ht="52.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
@@ -1635,12 +1635,12 @@
       <c r="BZ9" s="6"/>
     </row>
     <row r="10" spans="1:78" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1719,7 +1719,7 @@
       <c r="BZ10" s="6"/>
     </row>
     <row r="11" spans="1:78" s="4" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="27"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="BZ11" s="6"/>
     </row>
     <row r="12" spans="1:78" ht="44.4" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -1889,7 +1889,7 @@
       <c r="BZ12" s="6"/>
     </row>
     <row r="13" spans="1:78" ht="52.2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
@@ -1973,12 +1973,12 @@
       <c r="BZ13" s="6"/>
     </row>
     <row r="14" spans="1:78" ht="34.799999999999997">
-      <c r="A14" s="29"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -2057,7 +2057,7 @@
       <c r="BZ14" s="6"/>
     </row>
     <row r="15" spans="1:78" ht="87">
-      <c r="A15" s="29"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="16" t="s">
         <v>28</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="BZ15" s="6"/>
     </row>
     <row r="16" spans="1:78" s="4" customFormat="1" ht="17.399999999999999">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -2227,7 +2227,7 @@
       <c r="BZ16" s="6"/>
     </row>
     <row r="17" spans="1:78" s="4" customFormat="1" ht="52.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="18" t="s">
         <v>33</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="BZ17" s="6"/>
     </row>
     <row r="18" spans="1:78" s="4" customFormat="1" ht="52.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="18" t="s">
         <v>35</v>
       </c>
@@ -2395,7 +2395,7 @@
       <c r="BZ18" s="6"/>
     </row>
     <row r="19" spans="1:78" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A19" s="27"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="18" t="s">
         <v>37</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="BZ19" s="6"/>
     </row>
     <row r="20" spans="1:78" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A20" s="27"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="18" t="s">
         <v>39</v>
       </c>
@@ -2563,7 +2563,7 @@
       <c r="BZ20" s="6"/>
     </row>
     <row r="21" spans="1:78" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A21" s="27"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="18" t="s">
         <v>41</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="BZ21" s="6"/>
     </row>
     <row r="22" spans="1:78" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A22" s="27"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="18" t="s">
         <v>43</v>
       </c>
@@ -2731,11 +2731,11 @@
       <c r="BZ22" s="6"/>
     </row>
     <row r="23" spans="1:78" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>46</v>
@@ -2817,12 +2817,12 @@
       <c r="BZ23" s="6"/>
     </row>
     <row r="24" spans="1:78" s="2" customFormat="1" ht="34.799999999999997">
-      <c r="A24" s="32"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -2901,12 +2901,12 @@
       <c r="BZ24" s="11"/>
     </row>
     <row r="25" spans="1:78" s="2" customFormat="1" ht="52.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -2985,7 +2985,7 @@
       <c r="BZ25" s="11"/>
     </row>
     <row r="26" spans="1:78" s="2" customFormat="1" ht="52.2">
-      <c r="A26" s="32"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="20" t="s">
         <v>49</v>
       </c>
@@ -3069,7 +3069,7 @@
       <c r="BZ26" s="11"/>
     </row>
     <row r="27" spans="1:78" s="2" customFormat="1" ht="52.2">
-      <c r="A27" s="32"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="20" t="s">
         <v>51</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="BZ27" s="11"/>
     </row>
     <row r="28" spans="1:78" s="2" customFormat="1" ht="61.8" customHeight="1">
-      <c r="A28" s="32"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="20" t="s">
         <v>53</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="BZ28" s="11"/>
     </row>
     <row r="29" spans="1:78" s="2" customFormat="1" ht="45" customHeight="1">
-      <c r="A29" s="32"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="20" t="s">
         <v>55</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="BZ29" s="11"/>
     </row>
     <row r="30" spans="1:78" s="3" customFormat="1" ht="58.8" customHeight="1">
-      <c r="A30" s="32"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="22" t="s">
         <v>57</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="BZ30" s="6"/>
     </row>
     <row r="31" spans="1:78" s="3" customFormat="1" ht="58.2" customHeight="1">
-      <c r="A31" s="32"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="22" t="s">
         <v>59</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="BZ31" s="6"/>
     </row>
     <row r="32" spans="1:78" s="3" customFormat="1" ht="49.2" customHeight="1">
-      <c r="A32" s="32"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="22" t="s">
         <v>61</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="BZ32" s="6"/>
     </row>
     <row r="33" spans="1:78" s="3" customFormat="1" ht="37.200000000000003" customHeight="1">
-      <c r="A33" s="32"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="22" t="s">
         <v>62</v>
       </c>
@@ -3657,12 +3657,12 @@
       <c r="BZ33" s="6"/>
     </row>
     <row r="34" spans="1:78" s="3" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A34" s="33"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="22" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -3741,14 +3741,14 @@
       <c r="BZ34" s="6"/>
     </row>
     <row r="35" spans="1:78" s="4" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>68</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>

--- a/Requirement/REQ_SRS_.xlsx
+++ b/Requirement/REQ_SRS_.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Quality Assurance\Internal-Banking-System\Requirement\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="302"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="302" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="الورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="SRS" sheetId="1" r:id="rId1"/>
+    <sheet name="revision report" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>Module Name</t>
   </si>
@@ -294,12 +290,36 @@
   <si>
     <t>SRS_AccountSwitching_07</t>
   </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>18/3/2024</t>
+  </si>
+  <si>
+    <t>Aya  Mostafa</t>
+  </si>
+  <si>
+    <t>Initial draft</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -378,8 +398,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +522,12 @@
         <bgColor rgb="FF3C78D8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -559,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -643,6 +677,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,18 +898,18 @@
   </sheetPr>
   <dimension ref="A1:BZ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+    <sheetView topLeftCell="B27" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="66.21875" customWidth="1"/>
-    <col min="3" max="3" width="119.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="66.1796875" customWidth="1"/>
+    <col min="3" max="3" width="119.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="30" customFormat="1" ht="31.2" customHeight="1">
+    <row r="1" spans="1:78" s="30" customFormat="1" ht="31.25" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -960,7 +995,7 @@
       <c r="BY1" s="29"/>
       <c r="BZ1" s="29"/>
     </row>
-    <row r="2" spans="1:78" s="4" customFormat="1" ht="22.2" customHeight="1">
+    <row r="2" spans="1:78" s="4" customFormat="1" ht="22.25" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
@@ -1046,7 +1081,7 @@
       <c r="BY2" s="6"/>
       <c r="BZ2" s="6"/>
     </row>
-    <row r="3" spans="1:78" s="4" customFormat="1" ht="87">
+    <row r="3" spans="1:78" s="4" customFormat="1" ht="87.5">
       <c r="A3" s="31"/>
       <c r="B3" s="13" t="s">
         <v>6</v>
@@ -1130,7 +1165,7 @@
       <c r="BY3" s="6"/>
       <c r="BZ3" s="6"/>
     </row>
-    <row r="4" spans="1:78" s="4" customFormat="1" ht="104.4">
+    <row r="4" spans="1:78" s="4" customFormat="1" ht="105">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -1214,7 +1249,7 @@
       <c r="BY4" s="6"/>
       <c r="BZ4" s="6"/>
     </row>
-    <row r="5" spans="1:78" s="4" customFormat="1" ht="51.6" customHeight="1">
+    <row r="5" spans="1:78" s="4" customFormat="1" ht="51.65" customHeight="1">
       <c r="A5" s="32"/>
       <c r="B5" s="13" t="s">
         <v>9</v>
@@ -1382,7 +1417,7 @@
       <c r="BY6" s="6"/>
       <c r="BZ6" s="6"/>
     </row>
-    <row r="7" spans="1:78" s="4" customFormat="1" ht="87">
+    <row r="7" spans="1:78" s="4" customFormat="1" ht="87.5">
       <c r="A7" s="32"/>
       <c r="B7" s="13" t="s">
         <v>13</v>
@@ -1466,7 +1501,7 @@
       <c r="BY7" s="6"/>
       <c r="BZ7" s="6"/>
     </row>
-    <row r="8" spans="1:78" s="4" customFormat="1" ht="34.799999999999997">
+    <row r="8" spans="1:78" s="4" customFormat="1" ht="35">
       <c r="A8" s="32"/>
       <c r="B8" s="13" t="s">
         <v>15</v>
@@ -1550,7 +1585,7 @@
       <c r="BY8" s="6"/>
       <c r="BZ8" s="6"/>
     </row>
-    <row r="9" spans="1:78" s="4" customFormat="1" ht="52.2">
+    <row r="9" spans="1:78" s="4" customFormat="1" ht="52.5">
       <c r="A9" s="32"/>
       <c r="B9" s="13" t="s">
         <v>17</v>
@@ -1888,7 +1923,7 @@
       <c r="BY12" s="6"/>
       <c r="BZ12" s="6"/>
     </row>
-    <row r="13" spans="1:78" ht="52.2">
+    <row r="13" spans="1:78" ht="52.5">
       <c r="A13" s="34"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
@@ -1972,7 +2007,7 @@
       <c r="BY13" s="6"/>
       <c r="BZ13" s="6"/>
     </row>
-    <row r="14" spans="1:78" ht="34.799999999999997">
+    <row r="14" spans="1:78" ht="35">
       <c r="A14" s="34"/>
       <c r="B14" s="16" t="s">
         <v>27</v>
@@ -2056,7 +2091,7 @@
       <c r="BY14" s="6"/>
       <c r="BZ14" s="6"/>
     </row>
-    <row r="15" spans="1:78" ht="87">
+    <row r="15" spans="1:78" ht="87.5">
       <c r="A15" s="34"/>
       <c r="B15" s="16" t="s">
         <v>28</v>
@@ -2140,7 +2175,7 @@
       <c r="BY15" s="6"/>
       <c r="BZ15" s="6"/>
     </row>
-    <row r="16" spans="1:78" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="16" spans="1:78" s="4" customFormat="1" ht="17.5">
       <c r="A16" s="35" t="s">
         <v>30</v>
       </c>
@@ -2226,7 +2261,7 @@
       <c r="BY16" s="6"/>
       <c r="BZ16" s="6"/>
     </row>
-    <row r="17" spans="1:78" s="4" customFormat="1" ht="52.2">
+    <row r="17" spans="1:78" s="4" customFormat="1" ht="52.5">
       <c r="A17" s="32"/>
       <c r="B17" s="18" t="s">
         <v>33</v>
@@ -2310,7 +2345,7 @@
       <c r="BY17" s="6"/>
       <c r="BZ17" s="6"/>
     </row>
-    <row r="18" spans="1:78" s="4" customFormat="1" ht="52.2">
+    <row r="18" spans="1:78" s="4" customFormat="1" ht="52.5">
       <c r="A18" s="32"/>
       <c r="B18" s="18" t="s">
         <v>35</v>
@@ -2816,7 +2851,7 @@
       <c r="BY23" s="6"/>
       <c r="BZ23" s="6"/>
     </row>
-    <row r="24" spans="1:78" s="2" customFormat="1" ht="34.799999999999997">
+    <row r="24" spans="1:78" s="2" customFormat="1" ht="35">
       <c r="A24" s="37"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
@@ -2900,7 +2935,7 @@
       <c r="BY24" s="11"/>
       <c r="BZ24" s="11"/>
     </row>
-    <row r="25" spans="1:78" s="2" customFormat="1" ht="52.2">
+    <row r="25" spans="1:78" s="2" customFormat="1" ht="52.5">
       <c r="A25" s="37"/>
       <c r="B25" s="20" t="s">
         <v>48</v>
@@ -2984,7 +3019,7 @@
       <c r="BY25" s="11"/>
       <c r="BZ25" s="11"/>
     </row>
-    <row r="26" spans="1:78" s="2" customFormat="1" ht="52.2">
+    <row r="26" spans="1:78" s="2" customFormat="1" ht="52.5">
       <c r="A26" s="37"/>
       <c r="B26" s="20" t="s">
         <v>49</v>
@@ -3068,7 +3103,7 @@
       <c r="BY26" s="11"/>
       <c r="BZ26" s="11"/>
     </row>
-    <row r="27" spans="1:78" s="2" customFormat="1" ht="52.2">
+    <row r="27" spans="1:78" s="2" customFormat="1" ht="52.5">
       <c r="A27" s="37"/>
       <c r="B27" s="20" t="s">
         <v>51</v>
@@ -3152,7 +3187,7 @@
       <c r="BY27" s="11"/>
       <c r="BZ27" s="11"/>
     </row>
-    <row r="28" spans="1:78" s="2" customFormat="1" ht="61.8" customHeight="1">
+    <row r="28" spans="1:78" s="2" customFormat="1" ht="61.75" customHeight="1">
       <c r="A28" s="37"/>
       <c r="B28" s="20" t="s">
         <v>53</v>
@@ -3320,7 +3355,7 @@
       <c r="BY29" s="11"/>
       <c r="BZ29" s="11"/>
     </row>
-    <row r="30" spans="1:78" s="3" customFormat="1" ht="58.8" customHeight="1">
+    <row r="30" spans="1:78" s="3" customFormat="1" ht="58.75" customHeight="1">
       <c r="A30" s="37"/>
       <c r="B30" s="22" t="s">
         <v>57</v>
@@ -3404,7 +3439,7 @@
       <c r="BY30" s="6"/>
       <c r="BZ30" s="6"/>
     </row>
-    <row r="31" spans="1:78" s="3" customFormat="1" ht="58.2" customHeight="1">
+    <row r="31" spans="1:78" s="3" customFormat="1" ht="58.25" customHeight="1">
       <c r="A31" s="37"/>
       <c r="B31" s="22" t="s">
         <v>59</v>
@@ -3488,7 +3523,7 @@
       <c r="BY31" s="6"/>
       <c r="BZ31" s="6"/>
     </row>
-    <row r="32" spans="1:78" s="3" customFormat="1" ht="49.2" customHeight="1">
+    <row r="32" spans="1:78" s="3" customFormat="1" ht="49.25" customHeight="1">
       <c r="A32" s="37"/>
       <c r="B32" s="22" t="s">
         <v>61</v>
@@ -3572,7 +3607,7 @@
       <c r="BY32" s="6"/>
       <c r="BZ32" s="6"/>
     </row>
-    <row r="33" spans="1:78" s="3" customFormat="1" ht="37.200000000000003" customHeight="1">
+    <row r="33" spans="1:78" s="3" customFormat="1" ht="37.25" customHeight="1">
       <c r="A33" s="37"/>
       <c r="B33" s="22" t="s">
         <v>62</v>
@@ -3836,4 +3871,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="39" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" customHeight="1">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Requirement/REQ_SRS_.xlsx
+++ b/Requirement/REQ_SRS_.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maya Kind\Desktop\QA\Internal-Banking-System\Requirement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2055B1B-DBAA-4C4E-B393-534F493F3383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="302" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="1" r:id="rId1"/>
@@ -244,9 +250,6 @@
     <t>SRS_user_withdraw_05_2</t>
   </si>
   <si>
-    <t>SRS_Money_In_06</t>
-  </si>
-  <si>
     <t xml:space="preserve">The user can recieve money from another account
 </t>
   </si>
@@ -288,9 +291,6 @@
     <t>The user can switch between their own accounts.</t>
   </si>
   <si>
-    <t>SRS_AccountSwitching_07</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
@@ -313,12 +313,18 @@
   </si>
   <si>
     <t>Initial draft</t>
+  </si>
+  <si>
+    <t>SRS_user_MoneyIn_06</t>
+  </si>
+  <si>
+    <t>SRS_user_AccountSwitching_07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
       <sz val="10"/>
@@ -653,6 +659,7 @@
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -677,7 +684,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,24 +898,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BZ35"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="66.1796875" customWidth="1"/>
-    <col min="3" max="3" width="119.54296875" customWidth="1"/>
+    <col min="1" max="1" width="39.5546875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="66.21875" customWidth="1"/>
+    <col min="3" max="3" width="119.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="30" customFormat="1" ht="31.25" customHeight="1">
+    <row r="1" spans="1:78" s="30" customFormat="1" ht="31.2" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -995,8 +1001,8 @@
       <c r="BY1" s="29"/>
       <c r="BZ1" s="29"/>
     </row>
-    <row r="2" spans="1:78" s="4" customFormat="1" ht="22.25" customHeight="1">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:78" s="4" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1081,13 +1087,13 @@
       <c r="BY2" s="6"/>
       <c r="BZ2" s="6"/>
     </row>
-    <row r="3" spans="1:78" s="4" customFormat="1" ht="87.5">
-      <c r="A3" s="31"/>
+    <row r="3" spans="1:78" s="4" customFormat="1" ht="87">
+      <c r="A3" s="32"/>
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1165,8 +1171,8 @@
       <c r="BY3" s="6"/>
       <c r="BZ3" s="6"/>
     </row>
-    <row r="4" spans="1:78" s="4" customFormat="1" ht="105">
-      <c r="A4" s="32"/>
+    <row r="4" spans="1:78" s="4" customFormat="1" ht="104.4">
+      <c r="A4" s="33"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
@@ -1249,8 +1255,8 @@
       <c r="BY4" s="6"/>
       <c r="BZ4" s="6"/>
     </row>
-    <row r="5" spans="1:78" s="4" customFormat="1" ht="51.65" customHeight="1">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:78" s="4" customFormat="1" ht="51.6" customHeight="1">
+      <c r="A5" s="33"/>
       <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
@@ -1334,7 +1340,7 @@
       <c r="BZ5" s="6"/>
     </row>
     <row r="6" spans="1:78" s="4" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1423,8 @@
       <c r="BY6" s="6"/>
       <c r="BZ6" s="6"/>
     </row>
-    <row r="7" spans="1:78" s="4" customFormat="1" ht="87.5">
-      <c r="A7" s="32"/>
+    <row r="7" spans="1:78" s="4" customFormat="1" ht="87">
+      <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1501,8 +1507,8 @@
       <c r="BY7" s="6"/>
       <c r="BZ7" s="6"/>
     </row>
-    <row r="8" spans="1:78" s="4" customFormat="1" ht="35">
-      <c r="A8" s="32"/>
+    <row r="8" spans="1:78" s="4" customFormat="1" ht="34.799999999999997">
+      <c r="A8" s="33"/>
       <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
@@ -1585,8 +1591,8 @@
       <c r="BY8" s="6"/>
       <c r="BZ8" s="6"/>
     </row>
-    <row r="9" spans="1:78" s="4" customFormat="1" ht="52.5">
-      <c r="A9" s="32"/>
+    <row r="9" spans="1:78" s="4" customFormat="1" ht="52.2">
+      <c r="A9" s="33"/>
       <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
@@ -1670,12 +1676,12 @@
       <c r="BZ9" s="6"/>
     </row>
     <row r="10" spans="1:78" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1754,7 +1760,7 @@
       <c r="BZ10" s="6"/>
     </row>
     <row r="11" spans="1:78" s="4" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
@@ -1838,7 +1844,7 @@
       <c r="BZ11" s="6"/>
     </row>
     <row r="12" spans="1:78" ht="44.4" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -1923,8 +1929,8 @@
       <c r="BY12" s="6"/>
       <c r="BZ12" s="6"/>
     </row>
-    <row r="13" spans="1:78" ht="52.5">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:78" ht="52.2">
+      <c r="A13" s="35"/>
       <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
@@ -2007,13 +2013,13 @@
       <c r="BY13" s="6"/>
       <c r="BZ13" s="6"/>
     </row>
-    <row r="14" spans="1:78" ht="35">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:78" ht="34.799999999999997">
+      <c r="A14" s="35"/>
       <c r="B14" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -2091,8 +2097,8 @@
       <c r="BY14" s="6"/>
       <c r="BZ14" s="6"/>
     </row>
-    <row r="15" spans="1:78" ht="87.5">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:78" ht="87">
+      <c r="A15" s="35"/>
       <c r="B15" s="16" t="s">
         <v>28</v>
       </c>
@@ -2175,8 +2181,8 @@
       <c r="BY15" s="6"/>
       <c r="BZ15" s="6"/>
     </row>
-    <row r="16" spans="1:78" s="4" customFormat="1" ht="17.5">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:78" s="4" customFormat="1" ht="17.399999999999999">
+      <c r="A16" s="36" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -2261,8 +2267,8 @@
       <c r="BY16" s="6"/>
       <c r="BZ16" s="6"/>
     </row>
-    <row r="17" spans="1:78" s="4" customFormat="1" ht="52.5">
-      <c r="A17" s="32"/>
+    <row r="17" spans="1:78" s="4" customFormat="1" ht="52.2">
+      <c r="A17" s="33"/>
       <c r="B17" s="18" t="s">
         <v>33</v>
       </c>
@@ -2345,8 +2351,8 @@
       <c r="BY17" s="6"/>
       <c r="BZ17" s="6"/>
     </row>
-    <row r="18" spans="1:78" s="4" customFormat="1" ht="52.5">
-      <c r="A18" s="32"/>
+    <row r="18" spans="1:78" s="4" customFormat="1" ht="52.2">
+      <c r="A18" s="33"/>
       <c r="B18" s="18" t="s">
         <v>35</v>
       </c>
@@ -2430,7 +2436,7 @@
       <c r="BZ18" s="6"/>
     </row>
     <row r="19" spans="1:78" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="18" t="s">
         <v>37</v>
       </c>
@@ -2514,7 +2520,7 @@
       <c r="BZ19" s="6"/>
     </row>
     <row r="20" spans="1:78" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="18" t="s">
         <v>39</v>
       </c>
@@ -2598,7 +2604,7 @@
       <c r="BZ20" s="6"/>
     </row>
     <row r="21" spans="1:78" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="18" t="s">
         <v>41</v>
       </c>
@@ -2682,7 +2688,7 @@
       <c r="BZ21" s="6"/>
     </row>
     <row r="22" spans="1:78" s="4" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="18" t="s">
         <v>43</v>
       </c>
@@ -2766,11 +2772,11 @@
       <c r="BZ22" s="6"/>
     </row>
     <row r="23" spans="1:78" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>46</v>
@@ -2851,13 +2857,13 @@
       <c r="BY23" s="6"/>
       <c r="BZ23" s="6"/>
     </row>
-    <row r="24" spans="1:78" s="2" customFormat="1" ht="35">
-      <c r="A24" s="37"/>
+    <row r="24" spans="1:78" s="2" customFormat="1" ht="34.799999999999997">
+      <c r="A24" s="38"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -2935,13 +2941,13 @@
       <c r="BY24" s="11"/>
       <c r="BZ24" s="11"/>
     </row>
-    <row r="25" spans="1:78" s="2" customFormat="1" ht="52.5">
-      <c r="A25" s="37"/>
+    <row r="25" spans="1:78" s="2" customFormat="1" ht="52.2">
+      <c r="A25" s="38"/>
       <c r="B25" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -3019,8 +3025,8 @@
       <c r="BY25" s="11"/>
       <c r="BZ25" s="11"/>
     </row>
-    <row r="26" spans="1:78" s="2" customFormat="1" ht="52.5">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:78" s="2" customFormat="1" ht="52.2">
+      <c r="A26" s="38"/>
       <c r="B26" s="20" t="s">
         <v>49</v>
       </c>
@@ -3103,8 +3109,8 @@
       <c r="BY26" s="11"/>
       <c r="BZ26" s="11"/>
     </row>
-    <row r="27" spans="1:78" s="2" customFormat="1" ht="52.5">
-      <c r="A27" s="37"/>
+    <row r="27" spans="1:78" s="2" customFormat="1" ht="52.2">
+      <c r="A27" s="38"/>
       <c r="B27" s="20" t="s">
         <v>51</v>
       </c>
@@ -3187,8 +3193,8 @@
       <c r="BY27" s="11"/>
       <c r="BZ27" s="11"/>
     </row>
-    <row r="28" spans="1:78" s="2" customFormat="1" ht="61.75" customHeight="1">
-      <c r="A28" s="37"/>
+    <row r="28" spans="1:78" s="2" customFormat="1" ht="61.8" customHeight="1">
+      <c r="A28" s="38"/>
       <c r="B28" s="20" t="s">
         <v>53</v>
       </c>
@@ -3272,7 +3278,7 @@
       <c r="BZ28" s="11"/>
     </row>
     <row r="29" spans="1:78" s="2" customFormat="1" ht="45" customHeight="1">
-      <c r="A29" s="37"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="20" t="s">
         <v>55</v>
       </c>
@@ -3355,8 +3361,8 @@
       <c r="BY29" s="11"/>
       <c r="BZ29" s="11"/>
     </row>
-    <row r="30" spans="1:78" s="3" customFormat="1" ht="58.75" customHeight="1">
-      <c r="A30" s="37"/>
+    <row r="30" spans="1:78" s="3" customFormat="1" ht="58.8" customHeight="1">
+      <c r="A30" s="38"/>
       <c r="B30" s="22" t="s">
         <v>57</v>
       </c>
@@ -3439,8 +3445,8 @@
       <c r="BY30" s="6"/>
       <c r="BZ30" s="6"/>
     </row>
-    <row r="31" spans="1:78" s="3" customFormat="1" ht="58.25" customHeight="1">
-      <c r="A31" s="37"/>
+    <row r="31" spans="1:78" s="3" customFormat="1" ht="58.2" customHeight="1">
+      <c r="A31" s="38"/>
       <c r="B31" s="22" t="s">
         <v>59</v>
       </c>
@@ -3523,8 +3529,8 @@
       <c r="BY31" s="6"/>
       <c r="BZ31" s="6"/>
     </row>
-    <row r="32" spans="1:78" s="3" customFormat="1" ht="49.25" customHeight="1">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:78" s="3" customFormat="1" ht="49.2" customHeight="1">
+      <c r="A32" s="38"/>
       <c r="B32" s="22" t="s">
         <v>61</v>
       </c>
@@ -3607,13 +3613,13 @@
       <c r="BY32" s="6"/>
       <c r="BZ32" s="6"/>
     </row>
-    <row r="33" spans="1:78" s="3" customFormat="1" ht="37.25" customHeight="1">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:78" s="3" customFormat="1" ht="37.200000000000003" customHeight="1">
+      <c r="A33" s="38"/>
       <c r="B33" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>62</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>63</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3692,12 +3698,12 @@
       <c r="BZ33" s="6"/>
     </row>
     <row r="34" spans="1:78" s="3" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A34" s="38"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="22" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -3777,13 +3783,13 @@
     </row>
     <row r="35" spans="1:78" s="4" customFormat="1" ht="41.4" customHeight="1">
       <c r="A35" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="C35" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3874,41 +3880,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" s="39" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:4" s="31" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="D1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="39" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="19.05" customHeight="1">
+      <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="19" customHeight="1">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Requirement/REQ_SRS_.xlsx
+++ b/Requirement/REQ_SRS_.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maya Kind\Desktop\QA\Internal-Banking-System\Requirement\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2055B1B-DBAA-4C4E-B393-534F493F3383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="302" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="302"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="1" r:id="rId1"/>
@@ -23,9 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
-    <t>Module Name</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -320,11 +311,14 @@
   <si>
     <t>SRS_user_AccountSwitching_07</t>
   </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="10"/>
@@ -413,7 +407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +528,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -599,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -683,6 +683,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,32 +901,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BZ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.5546875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="66.21875" customWidth="1"/>
-    <col min="3" max="3" width="119.5546875" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="66.1796875" customWidth="1"/>
+    <col min="3" max="3" width="119.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="30" customFormat="1" ht="31.2" customHeight="1">
+    <row r="1" spans="1:78" s="30" customFormat="1" ht="31.25" customHeight="1">
       <c r="A1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
@@ -1001,15 +1004,15 @@
       <c r="BY1" s="29"/>
       <c r="BZ1" s="29"/>
     </row>
-    <row r="2" spans="1:78" s="4" customFormat="1" ht="22.2" customHeight="1">
+    <row r="2" spans="1:78" s="4" customFormat="1" ht="22.25" customHeight="1">
       <c r="A2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1087,13 +1090,13 @@
       <c r="BY2" s="6"/>
       <c r="BZ2" s="6"/>
     </row>
-    <row r="3" spans="1:78" s="4" customFormat="1" ht="87">
+    <row r="3" spans="1:78" s="4" customFormat="1" ht="87.5">
       <c r="A3" s="32"/>
       <c r="B3" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1171,13 +1174,13 @@
       <c r="BY3" s="6"/>
       <c r="BZ3" s="6"/>
     </row>
-    <row r="4" spans="1:78" s="4" customFormat="1" ht="104.4">
+    <row r="4" spans="1:78" s="4" customFormat="1" ht="105">
       <c r="A4" s="33"/>
       <c r="B4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1255,13 +1258,13 @@
       <c r="BY4" s="6"/>
       <c r="BZ4" s="6"/>
     </row>
-    <row r="5" spans="1:78" s="4" customFormat="1" ht="51.6" customHeight="1">
+    <row r="5" spans="1:78" s="4" customFormat="1" ht="51.65" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>10</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1342,10 +1345,10 @@
     <row r="6" spans="1:78" s="4" customFormat="1" ht="38.4" customHeight="1">
       <c r="A6" s="33"/>
       <c r="B6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1423,13 +1426,13 @@
       <c r="BY6" s="6"/>
       <c r="BZ6" s="6"/>
     </row>
-    <row r="7" spans="1:78" s="4" customFormat="1" ht="87">
+    <row r="7" spans="1:78" s="4" customFormat="1" ht="87.5">
       <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1507,13 +1510,13 @@
       <c r="BY7" s="6"/>
       <c r="BZ7" s="6"/>
     </row>
-    <row r="8" spans="1:78" s="4" customFormat="1" ht="34.799999999999997">
+    <row r="8" spans="1:78" s="4" customFormat="1" ht="35">
       <c r="A8" s="33"/>
       <c r="B8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1591,13 +1594,13 @@
       <c r="BY8" s="6"/>
       <c r="BZ8" s="6"/>
     </row>
-    <row r="9" spans="1:78" s="4" customFormat="1" ht="52.2">
+    <row r="9" spans="1:78" s="4" customFormat="1" ht="52.5">
       <c r="A9" s="33"/>
       <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1678,10 +1681,10 @@
     <row r="10" spans="1:78" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="33"/>
       <c r="B10" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1762,10 +1765,10 @@
     <row r="11" spans="1:78" s="4" customFormat="1" ht="45" customHeight="1">
       <c r="A11" s="33"/>
       <c r="B11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1845,13 +1848,13 @@
     </row>
     <row r="12" spans="1:78" ht="44.4" customHeight="1">
       <c r="A12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>24</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1929,13 +1932,13 @@
       <c r="BY12" s="6"/>
       <c r="BZ12" s="6"/>
     </row>
-    <row r="13" spans="1:78" ht="52.2">
+    <row r="13" spans="1:78" ht="52.5">
       <c r="A13" s="35"/>
       <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -2013,13 +2016,13 @@
       <c r="BY13" s="6"/>
       <c r="BZ13" s="6"/>
     </row>
-    <row r="14" spans="1:78" ht="34.799999999999997">
+    <row r="14" spans="1:78" ht="35">
       <c r="A14" s="35"/>
       <c r="B14" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -2097,13 +2100,13 @@
       <c r="BY14" s="6"/>
       <c r="BZ14" s="6"/>
     </row>
-    <row r="15" spans="1:78" ht="87">
+    <row r="15" spans="1:78" ht="87.5">
       <c r="A15" s="35"/>
       <c r="B15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>29</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2181,15 +2184,15 @@
       <c r="BY15" s="6"/>
       <c r="BZ15" s="6"/>
     </row>
-    <row r="16" spans="1:78" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="16" spans="1:78" s="4" customFormat="1" ht="17.5">
       <c r="A16" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -2267,13 +2270,13 @@
       <c r="BY16" s="6"/>
       <c r="BZ16" s="6"/>
     </row>
-    <row r="17" spans="1:78" s="4" customFormat="1" ht="52.2">
+    <row r="17" spans="1:78" s="4" customFormat="1" ht="52.5">
       <c r="A17" s="33"/>
       <c r="B17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>34</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2351,13 +2354,13 @@
       <c r="BY17" s="6"/>
       <c r="BZ17" s="6"/>
     </row>
-    <row r="18" spans="1:78" s="4" customFormat="1" ht="52.2">
+    <row r="18" spans="1:78" s="4" customFormat="1" ht="52.5">
       <c r="A18" s="33"/>
       <c r="B18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2438,10 +2441,10 @@
     <row r="19" spans="1:78" s="4" customFormat="1" ht="30.75" customHeight="1">
       <c r="A19" s="33"/>
       <c r="B19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>38</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2522,10 +2525,10 @@
     <row r="20" spans="1:78" s="4" customFormat="1" ht="30.75" customHeight="1">
       <c r="A20" s="33"/>
       <c r="B20" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>40</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2606,10 +2609,10 @@
     <row r="21" spans="1:78" s="4" customFormat="1" ht="30.75" customHeight="1">
       <c r="A21" s="33"/>
       <c r="B21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2690,10 +2693,10 @@
     <row r="22" spans="1:78" s="4" customFormat="1" ht="30.75" customHeight="1">
       <c r="A22" s="33"/>
       <c r="B22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>44</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -2773,13 +2776,13 @@
     </row>
     <row r="23" spans="1:78" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A23" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>46</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -2857,13 +2860,13 @@
       <c r="BY23" s="6"/>
       <c r="BZ23" s="6"/>
     </row>
-    <row r="24" spans="1:78" s="2" customFormat="1" ht="34.799999999999997">
+    <row r="24" spans="1:78" s="2" customFormat="1" ht="35">
       <c r="A24" s="38"/>
       <c r="B24" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -2941,13 +2944,13 @@
       <c r="BY24" s="11"/>
       <c r="BZ24" s="11"/>
     </row>
-    <row r="25" spans="1:78" s="2" customFormat="1" ht="52.2">
+    <row r="25" spans="1:78" s="2" customFormat="1" ht="52.5">
       <c r="A25" s="38"/>
       <c r="B25" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -3025,13 +3028,13 @@
       <c r="BY25" s="11"/>
       <c r="BZ25" s="11"/>
     </row>
-    <row r="26" spans="1:78" s="2" customFormat="1" ht="52.2">
+    <row r="26" spans="1:78" s="2" customFormat="1" ht="52.5">
       <c r="A26" s="38"/>
       <c r="B26" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>49</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -3109,13 +3112,13 @@
       <c r="BY26" s="11"/>
       <c r="BZ26" s="11"/>
     </row>
-    <row r="27" spans="1:78" s="2" customFormat="1" ht="52.2">
+    <row r="27" spans="1:78" s="2" customFormat="1" ht="52.5">
       <c r="A27" s="38"/>
       <c r="B27" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>52</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -3193,13 +3196,13 @@
       <c r="BY27" s="11"/>
       <c r="BZ27" s="11"/>
     </row>
-    <row r="28" spans="1:78" s="2" customFormat="1" ht="61.8" customHeight="1">
+    <row r="28" spans="1:78" s="2" customFormat="1" ht="61.75" customHeight="1">
       <c r="A28" s="38"/>
       <c r="B28" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>54</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -3280,10 +3283,10 @@
     <row r="29" spans="1:78" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="A29" s="38"/>
       <c r="B29" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>56</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -3361,13 +3364,13 @@
       <c r="BY29" s="11"/>
       <c r="BZ29" s="11"/>
     </row>
-    <row r="30" spans="1:78" s="3" customFormat="1" ht="58.8" customHeight="1">
+    <row r="30" spans="1:78" s="3" customFormat="1" ht="58.75" customHeight="1">
       <c r="A30" s="38"/>
       <c r="B30" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -3445,13 +3448,13 @@
       <c r="BY30" s="6"/>
       <c r="BZ30" s="6"/>
     </row>
-    <row r="31" spans="1:78" s="3" customFormat="1" ht="58.2" customHeight="1">
+    <row r="31" spans="1:78" s="3" customFormat="1" ht="58.25" customHeight="1">
       <c r="A31" s="38"/>
       <c r="B31" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -3529,13 +3532,13 @@
       <c r="BY31" s="6"/>
       <c r="BZ31" s="6"/>
     </row>
-    <row r="32" spans="1:78" s="3" customFormat="1" ht="49.2" customHeight="1">
+    <row r="32" spans="1:78" s="3" customFormat="1" ht="49.25" customHeight="1">
       <c r="A32" s="38"/>
       <c r="B32" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -3613,13 +3616,13 @@
       <c r="BY32" s="6"/>
       <c r="BZ32" s="6"/>
     </row>
-    <row r="33" spans="1:78" s="3" customFormat="1" ht="37.200000000000003" customHeight="1">
+    <row r="33" spans="1:78" s="3" customFormat="1" ht="37.25" customHeight="1">
       <c r="A33" s="38"/>
       <c r="B33" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -3700,10 +3703,10 @@
     <row r="34" spans="1:78" s="3" customFormat="1" ht="38.4" customHeight="1">
       <c r="A34" s="39"/>
       <c r="B34" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -3783,13 +3786,13 @@
     </row>
     <row r="35" spans="1:78" s="4" customFormat="1" ht="41.4" customHeight="1">
       <c r="A35" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="C35" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3880,41 +3883,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
     <row r="1" spans="1:4" s="31" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="31" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="19" customHeight="1">
+      <c r="A2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.05" customHeight="1">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Requirement/REQ_SRS_.xlsx
+++ b/Requirement/REQ_SRS_.xlsx
@@ -11,16 +11,11 @@
     <sheet name="revision record" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="UjSvASgStJVguQpPFvnwiF1ktvBqqkuQHxb+L0JDH9k="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
   <si>
     <t>Internet Banking System SRS</t>
   </si>
@@ -51,14 +46,6 @@
   </si>
   <si>
     <t>General Flow</t>
-  </si>
-  <si>
-    <t>The system is web interface-based, offering two perspectives upon registration or login: admin mode and user mode.
-User Registration: Users register once, gaining access to the system using their username and password for subsequent logins.
-User Mode: Upon login, users access the system in user mode, allowing them to perform various transactions provided within the system.
-Admin Mode: Admins gain access to additional functionalities, including adding users, deleting users, adding accounts, deleting accounts, and viewing account balances.
-User Transactions: Users can perform banking transactions such as balance inquiries, fund transfers, bill payments, and transaction history checks.
-Admin Features: Admins possess privileges for managing user accounts and bank transactions, ensuring the integrity and functionality of the internet banking system.</t>
   </si>
   <si>
     <t>Feature Name</t>
@@ -81,13 +68,6 @@
 Full Name cannot begin or end with space 
 Full Name cannot include digits or special char
 Full Name cannot be blank</t>
-  </si>
-  <si>
-    <t>User can register to the system in case of he succeded to provide all the required data in its valid
- format this includes providing full name ,username ,password ,National ID&amp;email . Conversely, if the user enters invalid
- full name ,username ,password ,National ID&amp;email, an error message "In valid input! please try again." will be
-displayed. This ensures secure access to the internet banking system while providing appropriate
-feedback for user authentication attempts.</t>
   </si>
   <si>
     <t>SRS_user_reg_02</t>
@@ -154,13 +134,6 @@
     <t>in case of successfull login using username exists in database &amp; its assotciated password exists in the database, the msg "You have successfully logged in" will be displayed.the redirection will be to the User Transactions</t>
   </si>
   <si>
-    <t>Upon successful login with a username and its associated password existing in the database, 
-and redirect the user to the User Transactions. Conversely, if the user enters a non-existent or unassociated
-username/password , an error message "Wrong username or password!" will be
-displayed. This ensures secure access to the internet banking system while providing appropriate
-feedback for user authentication attempts.</t>
-  </si>
-  <si>
     <t>SRS_user_log_02</t>
   </si>
   <si>
@@ -177,7 +150,147 @@
 Cannot include spaces</t>
   </si>
   <si>
-    <t>Admin has features like:
+    <t>SRS_admin_addUser_02</t>
+  </si>
+  <si>
+    <t>Admin can add user through user's  valid full name as per SRS_user_reg_01  ,valid NID as per SRS_user_reg_02,valid username as per SRS_user_reg_03,valid password as per SRS_user_reg_04 &amp;valid email as per SRS_user_reg_05, and the message "A new user was added successfully" will be displayed</t>
+  </si>
+  <si>
+    <t>SRS_admin_addUser_03</t>
+  </si>
+  <si>
+    <t>In case of an unsuccessful attempt to add a user due to invalid full name not as per SRS_user_reg_01  ,invalid NID not as per SRS_user_reg_02,invalid username not as per SRS_user_reg_03,invalid password not as per SRS_user_reg_04 or invalid email not as per SRS_user_reg_05, an error msg" invalid input! please try again." will be displayed</t>
+  </si>
+  <si>
+    <t>SRS_admin_deleteUser_04</t>
+  </si>
+  <si>
+    <t>SRS_admin_deleteUser_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In case of an unsuccessful attempt to delete user due to a non-existing National ID in database , the msg"invalid National ID" will be displayed</t>
+  </si>
+  <si>
+    <t>SRS_admin_addAccount_06</t>
+  </si>
+  <si>
+    <t>Admin can add multiple new accounts (Saving /Current)
+to an existing user using a username exists in the database &amp;valid account number as per SRS_admin_accountNumField_01 
+ , the msg"the bank account added successfully" will be displayed</t>
+  </si>
+  <si>
+    <t>SRS_admin_addAccount_07</t>
+  </si>
+  <si>
+    <t>In case of an unsuccessful attempt to add a bank account due to a username non-existing in the database or invalid account number not as per SRS_admin_accountNumField_01 , the message "invalid username or account number!" will be displayed.</t>
+  </si>
+  <si>
+    <t>SRS_admin_deleteAccount_08</t>
+  </si>
+  <si>
+    <t>Admin can delete  bank account/s through an existing account number in database and the msg"the bank account deleted successfully" will be displayed</t>
+  </si>
+  <si>
+    <t>SRS_admin_deleteAccount_09</t>
+  </si>
+  <si>
+    <t>In case of an unsuccessful attempt to delete a bank account due to a non-existing account number in the database the msg "Invalid account number!" will be displayed.</t>
+  </si>
+  <si>
+    <t>SRS_admin_viewBalance_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Admin can only view bank account balance using an existing account number in database.
+</t>
+  </si>
+  <si>
+    <t>SRS_admin_viewBalance_11</t>
+  </si>
+  <si>
+    <t>In case of an unsuccessful attempt to view bank account balance due to a non-existing account number in the database the msg "Invalid account number!" will be displayed.</t>
+  </si>
+  <si>
+    <t>SRS_user_trans_01</t>
+  </si>
+  <si>
+    <t>SRS_user_trans_02</t>
+  </si>
+  <si>
+    <t>SRS_user_trans_03</t>
+  </si>
+  <si>
+    <t>SRS_user_trans_04</t>
+  </si>
+  <si>
+    <t>SRS_user_trans_05</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>18/3/2024</t>
+  </si>
+  <si>
+    <t>Aya  Mostafa</t>
+  </si>
+  <si>
+    <t>Initial draft</t>
+  </si>
+  <si>
+    <t>28/3/2024</t>
+  </si>
+  <si>
+    <t>Dina,Sara,Sondos</t>
+  </si>
+  <si>
+    <t>High level SRS</t>
+  </si>
+  <si>
+    <t>more detailed SRS</t>
+  </si>
+  <si>
+    <t>The system is web interface-based, offering two perspectives upon registration or login: admin mode and user mode.
+User Registration: Users register once, gaining access to the system using their username and password for subsequent logins.
+User Mode: Upon login, users access the system in user mode, allowing them to perform various transactions provided within the system.
+Admin Mode: Admins gain access to additional functionalities, including adding users, deleting users, adding accounts, deleting accounts, and viewing account balances.
+User Transactions: Users can perform banking transactions that are balance inquiries, fund transfers and transaction history checks.
+Admin Features: Admins possess privileges for managing user accounts and bank transactions, ensuring the integrity and functionality of the internet banking system.</t>
+  </si>
+  <si>
+    <t>Functional Requirements</t>
+  </si>
+  <si>
+    <t>User can register to the system in case of he succeded to provide all the required data in its valid
+format this includes providing full name ,username ,password ,National ID&amp;email . 
+Conversely, if the user enters invalid full name ,username ,password ,National ID&amp;email, an error message will be
+displayed. 
+This ensures secure access to the internet banking system while providing appropriate
+feedback for user authentication attempts.</t>
+  </si>
+  <si>
+    <t>Upon successful login with a username and its associated password existing in the database, 
+redirect the user to the User Transactions.
+Conversely, if the user enters a non-existent or unassociated
+username/password , an error message  will be displayed. 
+This ensures secure access to the internet banking system while providing appropriate
+feedback for user authentication attempts.</t>
+  </si>
+  <si>
+    <t>Admin features :
 Admin can add users with valid full name, NID, username, password, and email.
 Admin can delete users using  an existing National ID, .
 Admin also can add accounts to existing users.
@@ -185,157 +298,82 @@
 Admin can view account balances using existing account numbers</t>
   </si>
   <si>
-    <t>SRS_admin_addUser_02</t>
-  </si>
-  <si>
-    <t>Admin can add user through user's  valid full name as per SRS_user_reg_01  ,valid NID as per SRS_user_reg_02,valid username as per SRS_user_reg_03,valid password as per SRS_user_reg_04 &amp;valid email as per SRS_user_reg_05, and the message "A new user was added successfully" will be displayed</t>
-  </si>
-  <si>
-    <t>SRS_admin_addUser_03</t>
-  </si>
-  <si>
-    <t>In case of an unsuccessful attempt to add a user due to invalid full name not as per SRS_user_reg_01  ,invalid NID not as per SRS_user_reg_02,invalid username not as per SRS_user_reg_03,invalid password not as per SRS_user_reg_04 or invalid email not as per SRS_user_reg_05, an error msg" invalid input! please try again." will be displayed</t>
-  </si>
-  <si>
-    <t>SRS_admin_deleteUser_04</t>
-  </si>
-  <si>
     <t xml:space="preserve">
-Admin can Delete the user successfully through an existing National ID the msg"the user was deleted successfully" will be displayed
+Admin can Delete the user successfully through an existing National ID in databbase the msg"the user was deleted successfully" will be displayed
 </t>
   </si>
   <si>
-    <t>SRS_admin_deleteUser_05</t>
-  </si>
-  <si>
     <t xml:space="preserve">
-In case of an unsuccessful attempt to delete user due to a non-existing National ID in database , the msg"invalid National ID" will be displayed</t>
-  </si>
-  <si>
-    <t>SRS_admin_addAccount_06</t>
-  </si>
-  <si>
-    <t>Admin can add multiple new accounts (Saving /Current)
-to an existing user using a username exists in the database &amp;valid account number as per SRS_admin_accountNumField_01 
- , the msg"the bank account added successfully" will be displayed</t>
-  </si>
-  <si>
-    <t>SRS_admin_addAccount_07</t>
-  </si>
-  <si>
-    <t>In case of an unsuccessful attempt to add a bank account due to a username non-existing in the database or invalid account number not as per SRS_admin_accountNumField_01 , the message "invalid username or account number!" will be displayed.</t>
-  </si>
-  <si>
-    <t>SRS_admin_deleteAccount_08</t>
-  </si>
-  <si>
-    <t>Admin can delete  bank account/s through an existing account number in database and the msg"the bank account deleted successfully" will be displayed</t>
-  </si>
-  <si>
-    <t>SRS_admin_deleteAccount_09</t>
-  </si>
-  <si>
-    <t>In case of an unsuccessful attempt to delete a bank account due to a non-existing account number in the database the msg "Invalid account number!" will be displayed.</t>
-  </si>
-  <si>
-    <t>SRS_admin_viewBalance_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Admin can only view bank account balance using an existing account number in database.
-</t>
-  </si>
-  <si>
-    <t>SRS_admin_viewBalance_11</t>
-  </si>
-  <si>
-    <t>In case of an unsuccessful attempt to view bank account balance due to a non-existing account number in the database the msg "Invalid account number!" will be displayed.</t>
-  </si>
-  <si>
-    <t>SRS_user_trans_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-User can view Bank Account Balance using an existing bank account number in database
-</t>
-  </si>
-  <si>
-    <t>SRS_user_trans_02</t>
-  </si>
-  <si>
-    <t>SRS_user_trans_03</t>
-  </si>
-  <si>
-    <t>User can use his valid and exist bank account number to view account's Transactions History data:
--source account number
--destination account number
+Amount value validity are: 
+-Amount should be greater than zero 
+-Amount should contain only numbers
+-Amount should be smaller than or equal the the user's current balance 
+-Amount shouldn't be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User can make fund transfer transaction by entering a destination account number and a valid amount value, meeting 
+the criteria outlined
+The system verifies the validity of the destination account number and the amount value. If valid, the transaction is 
+processed. If invalid, the error message will be displayed as mentioned.
+User can view the account details stored in the database that are acount balance, transaction history and account 
+number.</t>
+  </si>
+  <si>
+    <t>The Destination account number has the same validity as per 
+SRS_admin_accountNumField_01</t>
+  </si>
+  <si>
+    <t>the user can make Fund Transfer transaction using an existing destination account number in database and a valid Amount value input as per SRS_user_trans_01 and the message "your transaction has been done successfully "will be displayed</t>
+  </si>
+  <si>
+    <t>in case of unsuccessfull atempt to make Fund Transefer transaction due to a non-existing destination account number in database or an invalid Amount value input not as per SRS_user_trans_01 the message " invalid input! please try again." will be displayed</t>
+  </si>
+  <si>
+    <t>SRS_user_trans_06</t>
+  </si>
+  <si>
+    <t>the system should store the current balance of the bank account in database so that the user can be able to view his account balance.</t>
+  </si>
+  <si>
+    <t>SRS_user_trans_07</t>
+  </si>
+  <si>
+    <t>Each Transaction details are:
+-source account
+-destination account
 -Trans ID
 - Amount
--Type(withdraw /deposit)</t>
-  </si>
-  <si>
-    <t>SRS_user_trans_04</t>
-  </si>
-  <si>
-    <t>The user can transfer valid amount of money as per from his account to another account using  and  existing source &amp; destination account numbers in database</t>
-  </si>
-  <si>
-    <t>SRS_user_trans_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The user can deposite/withdraw an amount of money in his bank account using his valid and exist account number </t>
-  </si>
-  <si>
-    <t>System Technology</t>
-  </si>
-  <si>
-    <t>SRS_sys_technology_01</t>
-  </si>
-  <si>
-    <t>system will have web interface only</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>V0</t>
-  </si>
-  <si>
-    <t>18/3/2024</t>
-  </si>
-  <si>
-    <t>Aya  Mostafa</t>
-  </si>
-  <si>
-    <t>Initial draft</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>28/3/2024</t>
-  </si>
-  <si>
-    <t>Dina,Sara,Sondos</t>
-  </si>
-  <si>
-    <t>High level SRS</t>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
-    <t>more detailed SRS</t>
+-bank account number
+-date
+-time
+-balance after transaction</t>
+  </si>
+  <si>
+    <t>SRS_user_trans_08</t>
+  </si>
+  <si>
+    <t>the system should store the transaction details as per SRS_user_trans_07 in database so that the user can be able to view his transaction history</t>
+  </si>
+  <si>
+    <t>SRS_user_trans_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the system should store the acount number entered as per SRS_admin_addAccount_06 in database so that the user can be able to see his current acount number </t>
+  </si>
+  <si>
+    <t>V3.0</t>
+  </si>
+  <si>
+    <t>V2.0</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>19/4/2024</t>
+  </si>
+  <si>
+    <t>adding user transaction feature SRS</t>
   </si>
 </sst>
 </file>
@@ -391,22 +429,24 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="21"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="10">
@@ -465,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -489,20 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -512,24 +538,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -547,26 +555,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -591,132 +585,116 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -931,8 +909,8 @@
   </sheetPr>
   <dimension ref="A1:Z1015"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -951,66 +929,66 @@
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="31"/>
@@ -1040,7 +1018,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="31"/>
@@ -1070,7 +1048,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="31"/>
@@ -1100,7 +1078,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="31"/>
@@ -1128,9 +1106,9 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="31"/>
@@ -1158,116 +1136,118 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:26" ht="154" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>10</v>
+      <c r="B8" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="9"/>
+      <c r="D11" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -1290,16 +1270,16 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="9"/>
+    <row r="12" spans="1:26" ht="99.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -1322,16 +1302,16 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="9"/>
+    <row r="13" spans="1:26" ht="121" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -1354,16 +1334,16 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="9"/>
+    <row r="14" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -1386,16 +1366,16 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="9"/>
+    <row r="15" spans="1:26" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -1418,16 +1398,16 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="9"/>
+    <row r="16" spans="1:26" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
@@ -1450,16 +1430,16 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="1:26" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="9"/>
+    <row r="17" spans="1:26" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -1482,603 +1462,603 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:26" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+    </row>
+    <row r="19" spans="1:26" ht="59" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+    </row>
+    <row r="20" spans="1:26" ht="95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="13" t="s">
+      <c r="C20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="D20" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+    </row>
+    <row r="21" spans="1:26" ht="92" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17" t="s">
+      <c r="C21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+    </row>
+    <row r="22" spans="1:26" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="C22" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="20" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+    </row>
+    <row r="23" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+    </row>
+    <row r="24" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="20" t="s">
+      <c r="C24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+    </row>
+    <row r="25" spans="1:26" ht="90.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="20" t="s">
+      <c r="C25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+    </row>
+    <row r="26" spans="1:26" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="20" t="s">
+      <c r="C26" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D26" s="26"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+    </row>
+    <row r="27" spans="1:26" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="20" t="s">
+      <c r="C27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+    </row>
+    <row r="28" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="20" t="s">
+      <c r="C28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D28" s="26"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+    </row>
+    <row r="29" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-    </row>
-    <row r="27" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="20" t="s">
+      <c r="C29" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D29" s="26"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+    </row>
+    <row r="30" spans="1:26" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-    </row>
-    <row r="28" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="20" t="s">
+      <c r="C30" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+    </row>
+    <row r="31" spans="1:26" ht="94" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-    </row>
-    <row r="29" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="20" t="s">
+      <c r="C31" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="18"/>
+    </row>
+    <row r="32" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C32" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="18"/>
+    </row>
+    <row r="33" spans="1:26" ht="54.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-    </row>
-    <row r="30" spans="1:26" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="20" t="s">
+      <c r="C33" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="18"/>
+    </row>
+    <row r="34" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C34" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="18"/>
+    </row>
+    <row r="35" spans="1:26" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-    </row>
-    <row r="31" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="21"/>
-    </row>
-    <row r="32" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="21"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="21"/>
+      <c r="C35" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="18"/>
+    </row>
+    <row r="36" spans="1:26" ht="63.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="26"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -2100,11 +2080,104 @@
       <c r="W36" s="21"/>
       <c r="X36" s="21"/>
       <c r="Y36" s="21"/>
-      <c r="Z36" s="29"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="Z36" s="18"/>
+    </row>
+    <row r="37" spans="1:26" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="18"/>
+    </row>
+    <row r="38" spans="1:26" ht="71" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="18"/>
+    </row>
+    <row r="39" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+    </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3082,24 +3155,25 @@
     <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A21:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D11:D17"/>
+  <mergeCells count="18">
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D30"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A30"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="D11:D17"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3108,72 +3182,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
+    <col min="4" max="4" width="35.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="50" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="50" t="s">
-        <v>73</v>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="49">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1">
         <v>45508</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Requirement/REQ_SRS_.xlsx
+++ b/Requirement/REQ_SRS_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="560" windowWidth="18880" windowHeight="6740" activeTab="1"/>
+    <workbookView xWindow="130" yWindow="560" windowWidth="18880" windowHeight="6740"/>
   </bookViews>
   <sheets>
     <sheet name="SRS" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t>Internet Banking System SRS</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>User Transactions</t>
-  </si>
-  <si>
-    <t>System Features</t>
   </si>
   <si>
     <t>General Flow</t>
@@ -641,6 +638,13 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,7 +652,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,12 +686,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -907,10 +904,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1015"/>
+  <dimension ref="A1:Z1014"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -923,12 +920,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -956,11 +953,11 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -985,14 +982,14 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1017,12 +1014,12 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1047,12 +1044,12 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1077,12 +1074,12 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1106,13 +1103,15 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32" t="s">
+    <row r="7" spans="1:26" ht="154" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1136,15 +1135,13 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="154" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="38" t="s">
+    <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1168,85 +1165,87 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>4</v>
-      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+    </row>
+    <row r="11" spans="1:26" ht="99.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>72</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1270,15 +1269,15 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="99.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+    <row r="12" spans="1:26" ht="121" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="24"/>
+        <v>18</v>
+      </c>
+      <c r="D12" s="27"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1302,15 +1301,15 @@
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
     </row>
-    <row r="13" spans="1:26" ht="121" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="D13" s="27"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1334,15 +1333,15 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:26" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="D14" s="27"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1366,15 +1365,15 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
     </row>
-    <row r="15" spans="1:26" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:26" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="D15" s="27"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1398,15 +1397,15 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+    <row r="16" spans="1:26" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
       <c r="B16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="C16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="36"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1430,51 +1429,51 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
     </row>
-    <row r="17" spans="1:26" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="11" t="s">
+    <row r="17" spans="1:26" ht="64" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-    </row>
-    <row r="18" spans="1:26" ht="64" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>5</v>
-      </c>
+      <c r="C17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+    </row>
+    <row r="18" spans="1:26" ht="59" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
       <c r="B18" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>73</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D18" s="24"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -1498,83 +1497,83 @@
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
     </row>
-    <row r="19" spans="1:26" ht="59" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="13" t="s">
+    <row r="19" spans="1:26" ht="95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-    </row>
-    <row r="20" spans="1:26" ht="95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="C19" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D19" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+    </row>
+    <row r="20" spans="1:26" ht="92" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-    </row>
-    <row r="21" spans="1:26" ht="92" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="C20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+    </row>
+    <row r="21" spans="1:26" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
       <c r="B21" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="26"/>
+        <v>36</v>
+      </c>
+      <c r="D21" s="24"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -1598,15 +1597,15 @@
       <c r="Y21" s="18"/>
       <c r="Z21" s="18"/>
     </row>
-    <row r="22" spans="1:26" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+    <row r="22" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
       <c r="B22" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="26"/>
+        <v>74</v>
+      </c>
+      <c r="D22" s="24"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -1630,15 +1629,15 @@
       <c r="Y22" s="18"/>
       <c r="Z22" s="18"/>
     </row>
-    <row r="23" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+    <row r="23" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
       <c r="B23" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="D23" s="24"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -1662,15 +1661,15 @@
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
     </row>
-    <row r="24" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+    <row r="24" spans="1:26" ht="90.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
       <c r="B24" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="D24" s="24"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -1694,15 +1693,15 @@
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
     </row>
-    <row r="25" spans="1:26" ht="90.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+    <row r="25" spans="1:26" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
       <c r="B25" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="D25" s="24"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -1726,15 +1725,15 @@
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
     </row>
-    <row r="26" spans="1:26" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+    <row r="26" spans="1:26" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
       <c r="B26" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="D26" s="24"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -1758,15 +1757,15 @@
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
     </row>
-    <row r="27" spans="1:26" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+    <row r="27" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
       <c r="B27" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="D27" s="24"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -1790,15 +1789,15 @@
       <c r="Y27" s="18"/>
       <c r="Z27" s="18"/>
     </row>
-    <row r="28" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+    <row r="28" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
       <c r="B28" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="26"/>
+        <v>49</v>
+      </c>
+      <c r="D28" s="24"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -1822,15 +1821,15 @@
       <c r="Y28" s="18"/>
       <c r="Z28" s="18"/>
     </row>
-    <row r="29" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+    <row r="29" spans="1:26" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
       <c r="B29" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="26"/>
+        <v>51</v>
+      </c>
+      <c r="D29" s="24"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -1854,51 +1853,51 @@
       <c r="Y29" s="18"/>
       <c r="Z29" s="18"/>
     </row>
-    <row r="30" spans="1:26" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="11" t="s">
+    <row r="30" spans="1:26" ht="94" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
+      <c r="C30" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
       <c r="Z30" s="18"/>
     </row>
-    <row r="31" spans="1:26" ht="94" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>7</v>
-      </c>
+    <row r="31" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
       <c r="B31" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="25" t="s">
         <v>77</v>
       </c>
+      <c r="D31" s="24"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
@@ -1922,15 +1921,15 @@
       <c r="Y31" s="21"/>
       <c r="Z31" s="18"/>
     </row>
-    <row r="32" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
+    <row r="32" spans="1:26" ht="54.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
       <c r="B32" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -1954,15 +1953,15 @@
       <c r="Y32" s="21"/>
       <c r="Z32" s="18"/>
     </row>
-    <row r="33" spans="1:26" ht="54.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+    <row r="33" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
       <c r="B33" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -1986,15 +1985,15 @@
       <c r="Y33" s="21"/>
       <c r="Z33" s="18"/>
     </row>
-    <row r="34" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
+    <row r="34" spans="1:26" ht="56" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
       <c r="B34" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="26"/>
+        <v>51</v>
+      </c>
+      <c r="D34" s="24"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
@@ -2018,15 +2017,15 @@
       <c r="Y34" s="21"/>
       <c r="Z34" s="18"/>
     </row>
-    <row r="35" spans="1:26" ht="56" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
+    <row r="35" spans="1:26" ht="63.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
       <c r="B35" s="19" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="26"/>
+        <v>81</v>
+      </c>
+      <c r="D35" s="24"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -2050,15 +2049,15 @@
       <c r="Y35" s="21"/>
       <c r="Z35" s="18"/>
     </row>
-    <row r="36" spans="1:26" ht="63.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
+    <row r="36" spans="1:26" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
       <c r="B36" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="26"/>
+        <v>83</v>
+      </c>
+      <c r="D36" s="24"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -2082,15 +2081,15 @@
       <c r="Y36" s="21"/>
       <c r="Z36" s="18"/>
     </row>
-    <row r="37" spans="1:26" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
+    <row r="37" spans="1:26" ht="71" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
       <c r="B37" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="26"/>
+        <v>85</v>
+      </c>
+      <c r="D37" s="24"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -2114,15 +2113,15 @@
       <c r="Y37" s="21"/>
       <c r="Z37" s="18"/>
     </row>
-    <row r="38" spans="1:26" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
+    <row r="38" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
       <c r="B38" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="26"/>
+        <v>87</v>
+      </c>
+      <c r="D38" s="24"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -2144,40 +2143,9 @@
       <c r="W38" s="21"/>
       <c r="X38" s="21"/>
       <c r="Y38" s="21"/>
-      <c r="Z38" s="18"/>
-    </row>
-    <row r="39" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-    </row>
+      <c r="Z38" s="21"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3153,27 +3121,25 @@
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D30"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A30"/>
+  <mergeCells count="17">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="D11:D17"/>
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="A3:A6"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3184,7 +3150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -3196,72 +3162,72 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1">
         <v>45508</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
         <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Requirement/REQ_SRS_.xlsx
+++ b/Requirement/REQ_SRS_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>Internet Banking System SRS</t>
   </si>
@@ -25,9 +25,6 @@
   <si>
     <t xml:space="preserve">This scope outlines the primary functionalities and features of an internet banking system, covering both user-facing and administrative aspects.
 It sets the boundaries for what the system is intended to deliver </t>
-  </si>
-  <si>
-    <t>list of Features</t>
   </si>
   <si>
     <t>User Registration</t>
@@ -165,10 +162,6 @@
     <t>SRS_admin_deleteUser_05</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In case of an unsuccessful attempt to delete user due to a non-existing National ID in database , the msg"invalid National ID" will be displayed</t>
-  </si>
-  <si>
     <t>SRS_admin_addAccount_06</t>
   </si>
   <si>
@@ -186,13 +179,7 @@
     <t>SRS_admin_deleteAccount_08</t>
   </si>
   <si>
-    <t>Admin can delete  bank account/s through an existing account number in database and the msg"the bank account deleted successfully" will be displayed</t>
-  </si>
-  <si>
     <t>SRS_admin_deleteAccount_09</t>
-  </si>
-  <si>
-    <t>In case of an unsuccessful attempt to delete a bank account due to a non-existing account number in the database the msg "Invalid account number!" will be displayed.</t>
   </si>
   <si>
     <t>SRS_admin_viewBalance_10</t>
@@ -207,21 +194,6 @@
   </si>
   <si>
     <t>In case of an unsuccessful attempt to view bank account balance due to a non-existing account number in the database the msg "Invalid account number!" will be displayed.</t>
-  </si>
-  <si>
-    <t>SRS_user_trans_01</t>
-  </si>
-  <si>
-    <t>SRS_user_trans_02</t>
-  </si>
-  <si>
-    <t>SRS_user_trans_03</t>
-  </si>
-  <si>
-    <t>SRS_user_trans_04</t>
-  </si>
-  <si>
-    <t>SRS_user_trans_05</t>
   </si>
   <si>
     <t>version</t>
@@ -296,11 +268,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-Admin can Delete the user successfully through an existing National ID in databbase the msg"the user was deleted successfully" will be displayed
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 Amount value validity are: 
 -Amount should be greater than zero 
 -Amount should contain only numbers
@@ -320,19 +287,7 @@
 SRS_admin_accountNumField_01</t>
   </si>
   <si>
-    <t>the user can make Fund Transfer transaction using an existing destination account number in database and a valid Amount value input as per SRS_user_trans_01 and the message "your transaction has been done successfully "will be displayed</t>
-  </si>
-  <si>
-    <t>in case of unsuccessfull atempt to make Fund Transefer transaction due to a non-existing destination account number in database or an invalid Amount value input not as per SRS_user_trans_01 the message " invalid input! please try again." will be displayed</t>
-  </si>
-  <si>
-    <t>SRS_user_trans_06</t>
-  </si>
-  <si>
     <t>the system should store the current balance of the bank account in database so that the user can be able to view his account balance.</t>
-  </si>
-  <si>
-    <t>SRS_user_trans_07</t>
   </si>
   <si>
     <t>Each Transaction details are:
@@ -346,18 +301,6 @@
 -balance after transaction</t>
   </si>
   <si>
-    <t>SRS_user_trans_08</t>
-  </si>
-  <si>
-    <t>the system should store the transaction details as per SRS_user_trans_07 in database so that the user can be able to view his transaction history</t>
-  </si>
-  <si>
-    <t>SRS_user_trans_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the system should store the acount number entered as per SRS_admin_addAccount_06 in database so that the user can be able to see his current acount number </t>
-  </si>
-  <si>
     <t>V3.0</t>
   </si>
   <si>
@@ -371,6 +314,60 @@
   </si>
   <si>
     <t>adding user transaction feature SRS</t>
+  </si>
+  <si>
+    <t>list of Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Admin can Delete the user successfully if and only if all his accounts balance values is equal to zero .The deletion will be through an existing National ID in databbase the msg"the user was deleted successfully" will be displayed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In case of an unsuccessful attempt to delete user due to a non-existing National ID in database or one of his accounts has balance value grater than zero , the msg"invalid National ID" will be displayed</t>
+  </si>
+  <si>
+    <t>Admin can delete  bank account/s  if and only if it's balance value is eqal to zero and the deletion will be through an existing account number in database and the msg"the bank account deleted successfully" will be displayed</t>
+  </si>
+  <si>
+    <t>In case of an unsuccessful attempt to delete a bank account due to a non-existing account number in the database or the account balance value grater than zero the msg "Invalid account number!" will be displayed.</t>
+  </si>
+  <si>
+    <t>SRS_userTrans_AmountValueField_01</t>
+  </si>
+  <si>
+    <t>SRS_userTrans_DestinationAcountNumberField_02</t>
+  </si>
+  <si>
+    <t>SRS_userTrans_InvalidFundTransfer_04</t>
+  </si>
+  <si>
+    <t>the user can make Fund Transfer transaction using an existing destination account number in database and a valid Amount value input as per SRS_userTrans_AmountValueField_01 and the message "your transaction has been done successfully "will be displayed</t>
+  </si>
+  <si>
+    <t>in case of unsuccessfull atempt to make Fund Transefer transaction due to a non-existing destination account number in database or an invalid Amount value input not as per SRS_userTrans_AmountValueField_01 the message " invalid input! please try again." will be displayed</t>
+  </si>
+  <si>
+    <t>the system should store the transaction details as per SRS_useTrans_TransactionDetails_06 in database so that the user can be able to view his transaction history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the system should store the acount number entered as per SRS_userTrans_ViewBalance_05 in database so that the user can be able to see his current acount number </t>
+  </si>
+  <si>
+    <t>SRS_userTrans_ViewBalance_05</t>
+  </si>
+  <si>
+    <t>SRS_userTrans_ViewAccountNumber_08</t>
+  </si>
+  <si>
+    <t>SRS_userTrans_TransactionDetails_06</t>
+  </si>
+  <si>
+    <t>SRS_userTrans_TransactionHistory_07</t>
+  </si>
+  <si>
+    <t>SRS_userTrans_ValidFundTransfer_03</t>
   </si>
 </sst>
 </file>
@@ -638,6 +635,33 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -648,7 +672,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -659,32 +682,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -904,10 +901,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1014"/>
+  <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -920,12 +917,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -953,11 +950,11 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -982,14 +979,14 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1014,12 +1011,12 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1044,12 +1041,12 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1074,12 +1071,12 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1105,13 +1102,13 @@
     </row>
     <row r="7" spans="1:26" ht="154" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1136,12 +1133,12 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="A8" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1167,16 +1164,16 @@
     </row>
     <row r="9" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1202,17 +1199,17 @@
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>4</v>
+      <c r="A10" s="25" t="s">
+        <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>71</v>
+      <c r="D10" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1238,14 +1235,14 @@
       <c r="Z10" s="10"/>
     </row>
     <row r="11" spans="1:26" ht="99.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1270,14 +1267,14 @@
       <c r="Z11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="121" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="27"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1302,14 +1299,14 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="27"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1334,14 +1331,14 @@
       <c r="Z13" s="10"/>
     </row>
     <row r="14" spans="1:26" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="27"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1366,14 +1363,14 @@
       <c r="Z14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1398,14 +1395,14 @@
       <c r="Z15" s="10"/>
     </row>
     <row r="16" spans="1:26" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1430,17 +1427,17 @@
       <c r="Z16" s="10"/>
     </row>
     <row r="17" spans="1:26" ht="64" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>5</v>
+      <c r="A17" s="39" t="s">
+        <v>4</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>72</v>
+      <c r="D17" s="34" t="s">
+        <v>63</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -1466,14 +1463,14 @@
       <c r="Z17" s="14"/>
     </row>
     <row r="18" spans="1:26" ht="59" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -1498,17 +1495,17 @@
       <c r="Z18" s="14"/>
     </row>
     <row r="19" spans="1:26" ht="95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>6</v>
+      <c r="A19" s="40" t="s">
+        <v>5</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>73</v>
+      <c r="D19" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -1534,14 +1531,14 @@
       <c r="Z19" s="16"/>
     </row>
     <row r="20" spans="1:26" ht="92" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -1566,14 +1563,14 @@
       <c r="Z20" s="18"/>
     </row>
     <row r="21" spans="1:26" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -1598,14 +1595,14 @@
       <c r="Z21" s="18"/>
     </row>
     <row r="22" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="24"/>
+        <v>76</v>
+      </c>
+      <c r="D22" s="35"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -1630,14 +1627,14 @@
       <c r="Z22" s="18"/>
     </row>
     <row r="23" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="D23" s="35"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -1662,14 +1659,14 @@
       <c r="Z23" s="18"/>
     </row>
     <row r="24" spans="1:26" ht="90.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="D24" s="35"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -1694,14 +1691,14 @@
       <c r="Z24" s="18"/>
     </row>
     <row r="25" spans="1:26" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="24"/>
+        <v>41</v>
+      </c>
+      <c r="D25" s="35"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -1726,14 +1723,14 @@
       <c r="Z25" s="18"/>
     </row>
     <row r="26" spans="1:26" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="24"/>
+        <v>78</v>
+      </c>
+      <c r="D26" s="35"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -1758,14 +1755,14 @@
       <c r="Z26" s="18"/>
     </row>
     <row r="27" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="24"/>
+        <v>79</v>
+      </c>
+      <c r="D27" s="35"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -1790,14 +1787,14 @@
       <c r="Z27" s="18"/>
     </row>
     <row r="28" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="D28" s="35"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -1822,14 +1819,14 @@
       <c r="Z28" s="18"/>
     </row>
     <row r="29" spans="1:26" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="D29" s="35"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -1854,17 +1851,17 @@
       <c r="Z29" s="18"/>
     </row>
     <row r="30" spans="1:26" ht="94" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>7</v>
+      <c r="A30" s="37" t="s">
+        <v>6</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -1890,14 +1887,14 @@
       <c r="Z30" s="18"/>
     </row>
     <row r="31" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="19" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="24"/>
+        <v>67</v>
+      </c>
+      <c r="D31" s="35"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
@@ -1922,14 +1919,14 @@
       <c r="Z31" s="18"/>
     </row>
     <row r="32" spans="1:26" ht="54.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="19" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="24"/>
+        <v>83</v>
+      </c>
+      <c r="D32" s="35"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -1954,14 +1951,14 @@
       <c r="Z32" s="18"/>
     </row>
     <row r="33" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="19" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="24"/>
+        <v>84</v>
+      </c>
+      <c r="D33" s="35"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -1985,15 +1982,15 @@
       <c r="Y33" s="21"/>
       <c r="Z33" s="18"/>
     </row>
-    <row r="34" spans="1:26" ht="56" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
+    <row r="34" spans="1:26" ht="63.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
       <c r="B34" s="19" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="D34" s="35"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
@@ -2017,15 +2014,15 @@
       <c r="Y34" s="21"/>
       <c r="Z34" s="18"/>
     </row>
-    <row r="35" spans="1:26" ht="63.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
+    <row r="35" spans="1:26" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
       <c r="B35" s="19" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="D35" s="35"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -2049,15 +2046,15 @@
       <c r="Y35" s="21"/>
       <c r="Z35" s="18"/>
     </row>
-    <row r="36" spans="1:26" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+    <row r="36" spans="1:26" ht="71" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
       <c r="B36" s="19" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="D36" s="35"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -2081,15 +2078,15 @@
       <c r="Y36" s="21"/>
       <c r="Z36" s="18"/>
     </row>
-    <row r="37" spans="1:26" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+    <row r="37" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
       <c r="B37" s="19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="24"/>
+        <v>86</v>
+      </c>
+      <c r="D37" s="35"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -2111,40 +2108,9 @@
       <c r="W37" s="21"/>
       <c r="X37" s="21"/>
       <c r="Y37" s="21"/>
-      <c r="Z37" s="18"/>
-    </row>
-    <row r="38" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-    </row>
+      <c r="Z37" s="21"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3120,9 +3086,14 @@
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="D30:D37"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A29"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="D10:D16"/>
@@ -3134,12 +3105,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3162,72 +3127,72 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1">
         <v>45508</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Requirement/REQ_SRS_.xlsx
+++ b/Requirement/REQ_SRS_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
   <si>
     <t>Internet Banking System SRS</t>
   </si>
@@ -313,9 +313,6 @@
     <t>19/4/2024</t>
   </si>
   <si>
-    <t>adding user transaction feature SRS</t>
-  </si>
-  <si>
     <t>list of Models</t>
   </si>
   <si>
@@ -368,6 +365,18 @@
   </si>
   <si>
     <t>SRS_userTrans_ValidFundTransfer_03</t>
+  </si>
+  <si>
+    <t>V3.1</t>
+  </si>
+  <si>
+    <t>25/4/2024</t>
+  </si>
+  <si>
+    <t>adding user transaction module SRS</t>
+  </si>
+  <si>
+    <t>update the ID names in UserTransaction module</t>
   </si>
 </sst>
 </file>
@@ -635,6 +644,29 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,7 +674,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -660,28 +691,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,12 +926,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -950,11 +959,11 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -979,14 +988,14 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1011,12 +1020,12 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1041,12 +1050,12 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1071,12 +1080,12 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1104,11 +1113,11 @@
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1133,12 +1142,12 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1199,7 +1208,7 @@
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1208,7 +1217,7 @@
       <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="36" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="10"/>
@@ -1235,14 +1244,14 @@
       <c r="Z10" s="10"/>
     </row>
     <row r="11" spans="1:26" ht="99.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1267,14 +1276,14 @@
       <c r="Z11" s="10"/>
     </row>
     <row r="12" spans="1:26" ht="121" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1299,14 +1308,14 @@
       <c r="Z12" s="10"/>
     </row>
     <row r="13" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1331,14 +1340,14 @@
       <c r="Z13" s="10"/>
     </row>
     <row r="14" spans="1:26" ht="80.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1363,14 +1372,14 @@
       <c r="Z14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -1395,14 +1404,14 @@
       <c r="Z15" s="10"/>
     </row>
     <row r="16" spans="1:26" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1427,7 +1436,7 @@
       <c r="Z16" s="10"/>
     </row>
     <row r="17" spans="1:26" ht="64" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1436,7 +1445,7 @@
       <c r="C17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="23" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="14"/>
@@ -1463,14 +1472,14 @@
       <c r="Z17" s="14"/>
     </row>
     <row r="18" spans="1:26" ht="59" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -1495,7 +1504,7 @@
       <c r="Z18" s="14"/>
     </row>
     <row r="19" spans="1:26" ht="95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -1504,7 +1513,7 @@
       <c r="C19" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="25" t="s">
         <v>64</v>
       </c>
       <c r="E19" s="16"/>
@@ -1531,14 +1540,14 @@
       <c r="Z19" s="16"/>
     </row>
     <row r="20" spans="1:26" ht="92" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -1563,14 +1572,14 @@
       <c r="Z20" s="18"/>
     </row>
     <row r="21" spans="1:26" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="35"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -1595,14 +1604,14 @@
       <c r="Z21" s="18"/>
     </row>
     <row r="22" spans="1:26" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="35"/>
+        <v>75</v>
+      </c>
+      <c r="D22" s="24"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -1627,14 +1636,14 @@
       <c r="Z22" s="18"/>
     </row>
     <row r="23" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="35"/>
+        <v>76</v>
+      </c>
+      <c r="D23" s="24"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -1659,14 +1668,14 @@
       <c r="Z23" s="18"/>
     </row>
     <row r="24" spans="1:26" ht="90.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -1691,14 +1700,14 @@
       <c r="Z24" s="18"/>
     </row>
     <row r="25" spans="1:26" ht="83.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -1723,14 +1732,14 @@
       <c r="Z25" s="18"/>
     </row>
     <row r="26" spans="1:26" ht="60.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="35"/>
+        <v>77</v>
+      </c>
+      <c r="D26" s="24"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -1755,14 +1764,14 @@
       <c r="Z26" s="18"/>
     </row>
     <row r="27" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="35"/>
+        <v>78</v>
+      </c>
+      <c r="D27" s="24"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -1787,14 +1796,14 @@
       <c r="Z27" s="18"/>
     </row>
     <row r="28" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="35"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -1819,14 +1828,14 @@
       <c r="Z28" s="18"/>
     </row>
     <row r="29" spans="1:26" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="35"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -1851,16 +1860,16 @@
       <c r="Z29" s="18"/>
     </row>
     <row r="30" spans="1:26" ht="94" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="28" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="21"/>
@@ -1887,14 +1896,14 @@
       <c r="Z30" s="18"/>
     </row>
     <row r="31" spans="1:26" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="35"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
@@ -1919,14 +1928,14 @@
       <c r="Z31" s="18"/>
     </row>
     <row r="32" spans="1:26" ht="54.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="35"/>
+        <v>82</v>
+      </c>
+      <c r="D32" s="24"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -1951,14 +1960,14 @@
       <c r="Z32" s="18"/>
     </row>
     <row r="33" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="35"/>
+        <v>83</v>
+      </c>
+      <c r="D33" s="24"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -1983,14 +1992,14 @@
       <c r="Z33" s="18"/>
     </row>
     <row r="34" spans="1:26" ht="63.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="35"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
@@ -2015,14 +2024,14 @@
       <c r="Z34" s="18"/>
     </row>
     <row r="35" spans="1:26" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="35"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -2047,14 +2056,14 @@
       <c r="Z35" s="18"/>
     </row>
     <row r="36" spans="1:26" ht="71" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="35"/>
+        <v>84</v>
+      </c>
+      <c r="D36" s="24"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -2079,14 +2088,14 @@
       <c r="Z36" s="18"/>
     </row>
     <row r="37" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="35"/>
+        <v>85</v>
+      </c>
+      <c r="D37" s="24"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -3088,12 +3097,6 @@
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="D30:D37"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A29"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="D10:D16"/>
@@ -3105,6 +3108,12 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="D30:D37"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3113,16 +3122,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23.81640625" customWidth="1"/>
-    <col min="4" max="4" width="35.54296875" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3192,7 +3201,21 @@
         <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
